--- a/data/Fensham_2022/raw/trait_lookup_table.xlsx
+++ b/data/Fensham_2022/raw/trait_lookup_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lizzy\Documents\GitHub\threatened_species_traits\data\Fensham_2022\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BCBC25-4429-4CDD-B4BC-FA69683EAC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99C932F3-8B8D-43BD-9B19-401E47465A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CED2E932-C532-4D0C-8A6E-E5B4F51F1BC1}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1280,7 +1281,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1668B00C-D888-4048-9A97-F2773E72C405}">
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
